--- a/Code/Results/Cases/Case_5_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.4769729429429</v>
+        <v>13.36918167694849</v>
       </c>
       <c r="C2">
-        <v>6.934718119548075</v>
+        <v>9.272512497947954</v>
       </c>
       <c r="D2">
-        <v>5.041175978849665</v>
+        <v>5.778062008106065</v>
       </c>
       <c r="E2">
-        <v>8.176712389978823</v>
+        <v>12.18380765609242</v>
       </c>
       <c r="F2">
-        <v>20.39956023867998</v>
+        <v>28.04071463641513</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.41333142123636</v>
+        <v>9.725229834376696</v>
       </c>
       <c r="L2">
-        <v>6.784750111951593</v>
+        <v>9.654118617904462</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.75731691126231</v>
+        <v>19.70236070378844</v>
       </c>
       <c r="O2">
-        <v>16.68405980600471</v>
+        <v>25.14028807524863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.55405768214718</v>
+        <v>13.1311903008053</v>
       </c>
       <c r="C3">
-        <v>6.928272483448206</v>
+        <v>9.272639888474925</v>
       </c>
       <c r="D3">
-        <v>4.917014135929366</v>
+        <v>5.735678529978738</v>
       </c>
       <c r="E3">
-        <v>8.044137988167495</v>
+        <v>12.1935674632387</v>
       </c>
       <c r="F3">
-        <v>20.04128110240971</v>
+        <v>28.06402801069369</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.73179274149617</v>
+        <v>9.555774066044878</v>
       </c>
       <c r="L3">
-        <v>6.580804472362582</v>
+        <v>9.640379588668608</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.96201516240191</v>
+        <v>19.76338015506624</v>
       </c>
       <c r="O3">
-        <v>16.61815862899364</v>
+        <v>25.20186646751761</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.97478157446213</v>
+        <v>12.98559683549389</v>
       </c>
       <c r="C4">
-        <v>6.924991624945891</v>
+        <v>9.272997837982645</v>
       </c>
       <c r="D4">
-        <v>4.838615421062245</v>
+        <v>5.709035498388679</v>
       </c>
       <c r="E4">
-        <v>7.966682051479373</v>
+        <v>12.20178365642163</v>
       </c>
       <c r="F4">
-        <v>19.83515469442401</v>
+        <v>28.0850317534008</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.2907139304605</v>
+        <v>9.45191128257154</v>
       </c>
       <c r="L4">
-        <v>6.455842768207264</v>
+        <v>9.633608499674482</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.09051910295005</v>
+        <v>19.80259224988303</v>
       </c>
       <c r="O4">
-        <v>16.59045797942622</v>
+        <v>25.24461826394896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.7320912734046</v>
+        <v>12.926481950924</v>
       </c>
       <c r="C5">
-        <v>6.923824074381843</v>
+        <v>9.273214445022559</v>
       </c>
       <c r="D5">
-        <v>4.806148259280009</v>
+        <v>5.698026013061111</v>
       </c>
       <c r="E5">
-        <v>7.936127219682146</v>
+        <v>12.20569123904671</v>
       </c>
       <c r="F5">
-        <v>19.7546586378604</v>
+        <v>28.09527168203759</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.10531319498832</v>
+        <v>9.409688178555736</v>
       </c>
       <c r="L5">
-        <v>6.405056842757377</v>
+        <v>9.631270221080007</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.14361594517204</v>
+        <v>19.81901180687404</v>
       </c>
       <c r="O5">
-        <v>16.5822815120418</v>
+        <v>25.263280901852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.69139663816541</v>
+        <v>12.91668138473359</v>
       </c>
       <c r="C6">
-        <v>6.923640415336545</v>
+        <v>9.273254696618253</v>
       </c>
       <c r="D6">
-        <v>4.800726522611148</v>
+        <v>5.696188805371515</v>
       </c>
       <c r="E6">
-        <v>7.931115002882096</v>
+        <v>12.20637388196945</v>
       </c>
       <c r="F6">
-        <v>19.74150411910556</v>
+        <v>28.09707347280728</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.07418693568309</v>
+        <v>9.40268485173481</v>
       </c>
       <c r="L6">
-        <v>6.396634298527465</v>
+        <v>9.630907443025547</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.15247737067082</v>
+        <v>19.82176489333639</v>
       </c>
       <c r="O6">
-        <v>16.58110883509341</v>
+        <v>25.26645471008661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.97153522336849</v>
+        <v>12.98479861037415</v>
       </c>
       <c r="C7">
-        <v>6.924975193907254</v>
+        <v>9.273000472270228</v>
       </c>
       <c r="D7">
-        <v>4.838179625089177</v>
+        <v>5.708887632342401</v>
       </c>
       <c r="E7">
-        <v>7.966265872073827</v>
+        <v>12.20183409016027</v>
       </c>
       <c r="F7">
-        <v>19.83405490233525</v>
+        <v>28.08516304976982</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.28823641140235</v>
+        <v>9.451341360798533</v>
       </c>
       <c r="L7">
-        <v>6.455157200217686</v>
+        <v>9.633575257290465</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.0912321998886</v>
+        <v>19.80281190526864</v>
       </c>
       <c r="O7">
-        <v>16.59033524087913</v>
+        <v>25.24486493292682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14917134730575</v>
+        <v>13.28705985826045</v>
       </c>
       <c r="C8">
-        <v>6.932354717341449</v>
+        <v>9.27249860278096</v>
       </c>
       <c r="D8">
-        <v>4.998828198014158</v>
+        <v>5.763578839534495</v>
       </c>
       <c r="E8">
-        <v>8.130192879994363</v>
+        <v>12.18671153180498</v>
       </c>
       <c r="F8">
-        <v>20.27316312494077</v>
+        <v>28.04736415673979</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.18304276517975</v>
+        <v>9.666796492801948</v>
       </c>
       <c r="L8">
-        <v>6.714416863798331</v>
+        <v>9.649037396978908</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.82732531518789</v>
+        <v>19.72303862707961</v>
       </c>
       <c r="O8">
-        <v>16.6586306200827</v>
+        <v>25.16049342345863</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.41598535467674</v>
+        <v>13.880519939901</v>
       </c>
       <c r="C9">
-        <v>6.952235714495593</v>
+        <v>9.273716838910687</v>
       </c>
       <c r="D9">
-        <v>5.295703319320095</v>
+        <v>5.865762446356865</v>
       </c>
       <c r="E9">
-        <v>8.482102945121801</v>
+        <v>12.17468212701295</v>
       </c>
       <c r="F9">
-        <v>21.24295499589913</v>
+        <v>28.02634610395992</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.75774475573596</v>
+        <v>10.08836208218175</v>
       </c>
       <c r="L9">
-        <v>7.221989355071634</v>
+        <v>9.692451669269319</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.33112778010022</v>
+        <v>19.58039658848075</v>
       </c>
       <c r="O9">
-        <v>16.89798309849938</v>
+        <v>25.03433577628521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.91832402238893</v>
+        <v>14.31240521158942</v>
       </c>
       <c r="C10">
-        <v>6.970204623891487</v>
+        <v>9.275932052549807</v>
       </c>
       <c r="D10">
-        <v>5.501551395055659</v>
+        <v>5.937551829611305</v>
       </c>
       <c r="E10">
-        <v>8.757975455146894</v>
+        <v>12.17655675785786</v>
       </c>
       <c r="F10">
-        <v>22.01953614262806</v>
+        <v>28.04327429014531</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.80488560549048</v>
+        <v>10.39439118618921</v>
       </c>
       <c r="L10">
-        <v>7.590860365066867</v>
+        <v>9.732158788330493</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.97803559621241</v>
+        <v>19.48392081074432</v>
       </c>
       <c r="O10">
-        <v>17.14347582193768</v>
+        <v>24.96570272352362</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.56618460267613</v>
+        <v>14.50706629594722</v>
       </c>
       <c r="C11">
-        <v>6.979125582761799</v>
+        <v>9.277221694384387</v>
       </c>
       <c r="D11">
-        <v>5.592317430724859</v>
+        <v>5.969456681710195</v>
       </c>
       <c r="E11">
-        <v>8.886961408352898</v>
+        <v>12.17972496434753</v>
       </c>
       <c r="F11">
-        <v>22.38617061178199</v>
+        <v>28.05798632658014</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.25757380149375</v>
+        <v>10.53218297331897</v>
       </c>
       <c r="L11">
-        <v>7.757159133604402</v>
+        <v>9.751876467942697</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.81953399479186</v>
+        <v>19.44182059080072</v>
       </c>
       <c r="O11">
-        <v>17.27133094779336</v>
+        <v>24.93972091132089</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.80646181207227</v>
+        <v>14.58044749519691</v>
       </c>
       <c r="C12">
-        <v>6.982612574652482</v>
+        <v>9.277750173795177</v>
       </c>
       <c r="D12">
-        <v>5.626258955511991</v>
+        <v>5.981426595320507</v>
       </c>
       <c r="E12">
-        <v>8.936283640957745</v>
+        <v>12.18125636423936</v>
       </c>
       <c r="F12">
-        <v>22.5268766156584</v>
+        <v>28.06456257728833</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.42561276325671</v>
+        <v>10.58410726971051</v>
       </c>
       <c r="L12">
-        <v>7.819871487930059</v>
+        <v>9.759576965336951</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.75978733597467</v>
+        <v>19.42613397200689</v>
       </c>
       <c r="O12">
-        <v>17.32215212110998</v>
+        <v>24.93063685954002</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.75493759268683</v>
+        <v>14.56465946377114</v>
       </c>
       <c r="C13">
-        <v>6.981856724311331</v>
+        <v>9.27763457868064</v>
       </c>
       <c r="D13">
-        <v>5.618968386041744</v>
+        <v>5.978853686726811</v>
       </c>
       <c r="E13">
-        <v>8.925640322008103</v>
+        <v>12.18091182146943</v>
       </c>
       <c r="F13">
-        <v>22.49649072566329</v>
+        <v>28.06310161969428</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.38957273213848</v>
+        <v>10.57293652942041</v>
       </c>
       <c r="L13">
-        <v>7.80637753949496</v>
+        <v>9.757908193489921</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.77264314998153</v>
+        <v>19.42950100671261</v>
       </c>
       <c r="O13">
-        <v>17.31109869467049</v>
+        <v>24.93255968993847</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.58605328163315</v>
+        <v>14.51311048532632</v>
       </c>
       <c r="C14">
-        <v>6.979410270029825</v>
+        <v>9.277264371058703</v>
       </c>
       <c r="D14">
-        <v>5.595118516536189</v>
+        <v>5.970443713684607</v>
       </c>
       <c r="E14">
-        <v>8.89100972994474</v>
+        <v>12.17984431449438</v>
       </c>
       <c r="F14">
-        <v>22.39770940485276</v>
+        <v>28.05850723542898</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.27146616907251</v>
+        <v>10.5364601934563</v>
       </c>
       <c r="L14">
-        <v>7.762323992251682</v>
+        <v>9.752505330438266</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.81461328306228</v>
+        <v>19.44052492281626</v>
       </c>
       <c r="O14">
-        <v>17.27546339763758</v>
+        <v>24.93895842936876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.4819504662029</v>
+        <v>14.48148980993376</v>
       </c>
       <c r="C15">
-        <v>6.977925962700131</v>
+        <v>9.277042820474753</v>
       </c>
       <c r="D15">
-        <v>5.580453386582341</v>
+        <v>5.965277703421769</v>
       </c>
       <c r="E15">
-        <v>8.869859059305796</v>
+        <v>12.17923358705984</v>
       </c>
       <c r="F15">
-        <v>22.33744493495024</v>
+        <v>28.05582383192406</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.19868239738958</v>
+        <v>10.51408280609755</v>
       </c>
       <c r="L15">
-        <v>7.735304646156163</v>
+        <v>9.749226247384305</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.84035600170262</v>
+        <v>19.44731067087346</v>
       </c>
       <c r="O15">
-        <v>17.25395123674128</v>
+        <v>24.94297615874865</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.87527432018104</v>
+        <v>14.29964098801476</v>
       </c>
       <c r="C16">
-        <v>6.969636764360413</v>
+        <v>9.275853408628288</v>
       </c>
       <c r="D16">
-        <v>5.495560343322127</v>
+        <v>5.935451325052694</v>
       </c>
       <c r="E16">
-        <v>8.749614091964029</v>
+        <v>12.17639619508255</v>
       </c>
       <c r="F16">
-        <v>21.99584013828163</v>
+        <v>28.04245366503954</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.7748266715524</v>
+        <v>10.38535322340602</v>
       </c>
       <c r="L16">
-        <v>7.579958096646313</v>
+        <v>9.730903143688197</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.98843416709133</v>
+        <v>19.48670802053652</v>
       </c>
       <c r="O16">
-        <v>17.13545258381761</v>
+        <v>24.96750624263552</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.49403222860326</v>
+        <v>14.18756701828559</v>
       </c>
       <c r="C17">
-        <v>6.964743851457948</v>
+        <v>9.275195653114238</v>
       </c>
       <c r="D17">
-        <v>5.442732739289631</v>
+        <v>5.916958526178137</v>
       </c>
       <c r="E17">
-        <v>8.676724379930958</v>
+        <v>12.17524773255671</v>
       </c>
       <c r="F17">
-        <v>21.78966197334989</v>
+        <v>28.03604534447157</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.50875584614381</v>
+        <v>10.30598119744867</v>
       </c>
       <c r="L17">
-        <v>7.484238943695069</v>
+        <v>9.720083487309337</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.07979754650891</v>
+        <v>19.51133390676475</v>
       </c>
       <c r="O17">
-        <v>17.0669588059064</v>
+        <v>24.98389761409528</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.27140098404226</v>
+        <v>14.12293922564206</v>
       </c>
       <c r="C18">
-        <v>6.961999776207624</v>
+        <v>9.274843891465274</v>
       </c>
       <c r="D18">
-        <v>5.412077914832909</v>
+        <v>5.906251337122556</v>
       </c>
       <c r="E18">
-        <v>8.635130046627975</v>
+        <v>12.17480519617138</v>
       </c>
       <c r="F18">
-        <v>21.67233474946669</v>
+        <v>28.03301962783156</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.35349034788748</v>
+        <v>10.26019746299532</v>
       </c>
       <c r="L18">
-        <v>7.429044708793242</v>
+        <v>9.714016319126012</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.13254900410718</v>
+        <v>19.52566634377319</v>
       </c>
       <c r="O18">
-        <v>17.02908146077704</v>
+        <v>24.99381862299775</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.19544455917888</v>
+        <v>14.10103117293323</v>
       </c>
       <c r="C19">
-        <v>6.961082695310314</v>
+        <v>9.274729365844275</v>
       </c>
       <c r="D19">
-        <v>5.401652902912227</v>
+        <v>5.902614047137591</v>
       </c>
       <c r="E19">
-        <v>8.621104321946605</v>
+        <v>12.17469284349917</v>
       </c>
       <c r="F19">
-        <v>21.63282795599134</v>
+        <v>28.03210863862299</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.30053689020453</v>
+        <v>10.24467493114993</v>
       </c>
       <c r="L19">
-        <v>7.410334481394395</v>
+        <v>9.711988996210035</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.1504452798297</v>
+        <v>19.53054799826023</v>
       </c>
       <c r="O19">
-        <v>17.01651516895967</v>
+        <v>24.99726235991065</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.53496247488665</v>
+        <v>14.19951518514556</v>
       </c>
       <c r="C20">
-        <v>6.965257435253362</v>
+        <v>9.275262926296604</v>
       </c>
       <c r="D20">
-        <v>5.448384371994415</v>
+        <v>5.918934451063003</v>
       </c>
       <c r="E20">
-        <v>8.684449646440923</v>
+        <v>12.17534743186174</v>
       </c>
       <c r="F20">
-        <v>21.81147986475067</v>
+        <v>28.03665921461712</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.53731007636147</v>
+        <v>10.31444441711304</v>
       </c>
       <c r="L20">
-        <v>7.494443156674271</v>
+        <v>9.721219140453602</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.07005110401981</v>
+        <v>19.50869503137081</v>
       </c>
       <c r="O20">
-        <v>17.07409234609811</v>
+        <v>24.98210167835214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.63579535921568</v>
+        <v>14.52826126427368</v>
       </c>
       <c r="C21">
-        <v>6.980125887450329</v>
+        <v>9.277372024533225</v>
       </c>
       <c r="D21">
-        <v>5.6021355806296</v>
+        <v>5.972916987781954</v>
       </c>
       <c r="E21">
-        <v>8.901168784728553</v>
+        <v>12.18014887703736</v>
       </c>
       <c r="F21">
-        <v>22.42667354324418</v>
+        <v>28.05982946780627</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.3062486040683</v>
+        <v>10.54718146924045</v>
       </c>
       <c r="L21">
-        <v>7.775271010500733</v>
+        <v>9.754085969945086</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.8022784426973</v>
+        <v>19.43727999773177</v>
       </c>
       <c r="O21">
-        <v>17.28586446675443</v>
+        <v>24.9370584734762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.32582692553206</v>
+        <v>14.74114515872961</v>
       </c>
       <c r="C22">
-        <v>6.990478343652222</v>
+        <v>9.278984095371429</v>
       </c>
       <c r="D22">
-        <v>5.700110559146197</v>
+        <v>6.007544665485994</v>
       </c>
       <c r="E22">
-        <v>9.045583558085433</v>
+        <v>12.18521937814674</v>
       </c>
       <c r="F22">
-        <v>22.83961254947347</v>
+        <v>28.08082912571273</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.78908070668445</v>
+        <v>10.69778399166001</v>
       </c>
       <c r="L22">
-        <v>7.957268189672201</v>
+        <v>9.776927255287397</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.62885765523745</v>
+        <v>19.39209673296483</v>
       </c>
       <c r="O22">
-        <v>17.43832262594607</v>
+        <v>24.91201950397996</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.96021617378951</v>
+        <v>14.62772852228639</v>
       </c>
       <c r="C23">
-        <v>6.984894418401915</v>
+        <v>9.278102463288661</v>
       </c>
       <c r="D23">
-        <v>5.648054048602813</v>
+        <v>5.989124130665966</v>
       </c>
       <c r="E23">
-        <v>8.968260211270138</v>
+        <v>12.18233681204727</v>
       </c>
       <c r="F23">
-        <v>22.61824089726664</v>
+        <v>28.06908658935566</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.53318050619583</v>
+        <v>10.6175581123449</v>
       </c>
       <c r="L23">
-        <v>7.860287117055057</v>
+        <v>9.764613331122526</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.72128127922087</v>
+        <v>19.41607588376593</v>
       </c>
       <c r="O23">
-        <v>17.35564215099237</v>
+        <v>24.92498037905641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.51646866131456</v>
+        <v>14.19411402060211</v>
       </c>
       <c r="C24">
-        <v>6.965025029437403</v>
+        <v>9.27523242985718</v>
       </c>
       <c r="D24">
-        <v>5.445830150740971</v>
+        <v>5.91804137010477</v>
       </c>
       <c r="E24">
-        <v>8.680956083139412</v>
+        <v>12.17530167951209</v>
       </c>
       <c r="F24">
-        <v>21.80161223142132</v>
+        <v>28.03637963247343</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.52440786744762</v>
+        <v>10.31061866418095</v>
       </c>
       <c r="L24">
-        <v>7.489830339355517</v>
+        <v>9.720705234173591</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.07445676619785</v>
+        <v>19.50988752269398</v>
       </c>
       <c r="O24">
-        <v>17.07086260442656</v>
+        <v>24.98291207164164</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.83081467111621</v>
+        <v>13.72037684053851</v>
       </c>
       <c r="C25">
-        <v>6.94627194382013</v>
+        <v>9.273153803777568</v>
       </c>
       <c r="D25">
-        <v>5.217465275533024</v>
+        <v>5.838681877528209</v>
       </c>
       <c r="E25">
-        <v>8.383765568288943</v>
+        <v>12.17605202975851</v>
       </c>
       <c r="F25">
-        <v>20.96916443843069</v>
+        <v>28.02634389303911</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.35105621646105</v>
+        <v>9.974746828252266</v>
       </c>
       <c r="L25">
-        <v>7.085152636315545</v>
+        <v>9.679321820675799</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.46323305406475</v>
+        <v>19.61751725049802</v>
       </c>
       <c r="O25">
-        <v>16.82137296237508</v>
+        <v>25.06424696071539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36918167694849</v>
+        <v>14.47697294294288</v>
       </c>
       <c r="C2">
-        <v>9.272512497947954</v>
+        <v>6.934718119547817</v>
       </c>
       <c r="D2">
-        <v>5.778062008106065</v>
+        <v>5.0411759788498</v>
       </c>
       <c r="E2">
-        <v>12.18380765609242</v>
+        <v>8.176712389978851</v>
       </c>
       <c r="F2">
-        <v>28.04071463641513</v>
+        <v>20.39956023868001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.725229834376696</v>
+        <v>11.41333142123631</v>
       </c>
       <c r="L2">
-        <v>9.654118617904462</v>
+        <v>6.784750111951629</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.70236070378844</v>
+        <v>12.75731691126234</v>
       </c>
       <c r="O2">
-        <v>25.14028807524863</v>
+        <v>16.68405980600477</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.1311903008053</v>
+        <v>13.55405768214716</v>
       </c>
       <c r="C3">
-        <v>9.272639888474925</v>
+        <v>6.928272483448207</v>
       </c>
       <c r="D3">
-        <v>5.735678529978738</v>
+        <v>4.917014135929355</v>
       </c>
       <c r="E3">
-        <v>12.1935674632387</v>
+        <v>8.04413798816754</v>
       </c>
       <c r="F3">
-        <v>28.06402801069369</v>
+        <v>20.04128110240952</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.555774066044878</v>
+        <v>10.73179274149623</v>
       </c>
       <c r="L3">
-        <v>9.640379588668608</v>
+        <v>6.580804472362558</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.76338015506624</v>
+        <v>12.96201516240182</v>
       </c>
       <c r="O3">
-        <v>25.20186646751761</v>
+        <v>16.61815862899346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.98559683549389</v>
+        <v>12.97478157446217</v>
       </c>
       <c r="C4">
-        <v>9.272997837982645</v>
+        <v>6.924991624945882</v>
       </c>
       <c r="D4">
-        <v>5.709035498388679</v>
+        <v>4.838615421062252</v>
       </c>
       <c r="E4">
-        <v>12.20178365642163</v>
+        <v>7.966682051479435</v>
       </c>
       <c r="F4">
-        <v>28.0850317534008</v>
+        <v>19.83515469442411</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.45191128257154</v>
+        <v>10.29071393046047</v>
       </c>
       <c r="L4">
-        <v>9.633608499674482</v>
+        <v>6.455842768207283</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.80259224988303</v>
+        <v>13.09051910295008</v>
       </c>
       <c r="O4">
-        <v>25.24461826394896</v>
+        <v>16.59045797942631</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.926481950924</v>
+        <v>12.7320912734046</v>
       </c>
       <c r="C5">
-        <v>9.273214445022559</v>
+        <v>6.923824074381704</v>
       </c>
       <c r="D5">
-        <v>5.698026013061111</v>
+        <v>4.806148259280006</v>
       </c>
       <c r="E5">
-        <v>12.20569123904671</v>
+        <v>7.936127219682206</v>
       </c>
       <c r="F5">
-        <v>28.09527168203759</v>
+        <v>19.7546586378604</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.409688178555736</v>
+        <v>10.10531319498834</v>
       </c>
       <c r="L5">
-        <v>9.631270221080007</v>
+        <v>6.405056842757421</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.81901180687404</v>
+        <v>13.14361594517204</v>
       </c>
       <c r="O5">
-        <v>25.263280901852</v>
+        <v>16.5822815120418</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91668138473359</v>
+        <v>12.69139663816541</v>
       </c>
       <c r="C6">
-        <v>9.273254696618253</v>
+        <v>6.923640415336544</v>
       </c>
       <c r="D6">
-        <v>5.696188805371515</v>
+        <v>4.800726522611214</v>
       </c>
       <c r="E6">
-        <v>12.20637388196945</v>
+        <v>7.931115002882047</v>
       </c>
       <c r="F6">
-        <v>28.09707347280728</v>
+        <v>19.74150411910562</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.40268485173481</v>
+        <v>10.07418693568307</v>
       </c>
       <c r="L6">
-        <v>9.630907443025547</v>
+        <v>6.396634298527426</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.82176489333639</v>
+        <v>13.15247737067085</v>
       </c>
       <c r="O6">
-        <v>25.26645471008661</v>
+        <v>16.58110883509347</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.98479861037415</v>
+        <v>12.97153522336846</v>
       </c>
       <c r="C7">
-        <v>9.273000472270228</v>
+        <v>6.92497519390726</v>
       </c>
       <c r="D7">
-        <v>5.708887632342401</v>
+        <v>4.838179625089185</v>
       </c>
       <c r="E7">
-        <v>12.20183409016027</v>
+        <v>7.966265872073834</v>
       </c>
       <c r="F7">
-        <v>28.08516304976982</v>
+        <v>19.83405490233507</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.451341360798533</v>
+        <v>10.28823641140241</v>
       </c>
       <c r="L7">
-        <v>9.633575257290465</v>
+        <v>6.455157200217644</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.80281190526864</v>
+        <v>13.0912321998885</v>
       </c>
       <c r="O7">
-        <v>25.24486493292682</v>
+        <v>16.59033524087894</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.28705985826045</v>
+        <v>14.14917134730576</v>
       </c>
       <c r="C8">
-        <v>9.27249860278096</v>
+        <v>6.932354717341452</v>
       </c>
       <c r="D8">
-        <v>5.763578839534495</v>
+        <v>4.998828198014223</v>
       </c>
       <c r="E8">
-        <v>12.18671153180498</v>
+        <v>8.130192879994278</v>
       </c>
       <c r="F8">
-        <v>28.04736415673979</v>
+        <v>20.27316312494056</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.666796492801948</v>
+        <v>11.18304276517978</v>
       </c>
       <c r="L8">
-        <v>9.649037396978908</v>
+        <v>6.71441686379828</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.72303862707961</v>
+        <v>12.82732531518779</v>
       </c>
       <c r="O8">
-        <v>25.16049342345863</v>
+        <v>16.65863062008257</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.880519939901</v>
+        <v>16.41598535467669</v>
       </c>
       <c r="C9">
-        <v>9.273716838910687</v>
+        <v>6.952235714495722</v>
       </c>
       <c r="D9">
-        <v>5.865762446356865</v>
+        <v>5.295703319320216</v>
       </c>
       <c r="E9">
-        <v>12.17468212701295</v>
+        <v>8.482102945121841</v>
       </c>
       <c r="F9">
-        <v>28.02634610395992</v>
+        <v>21.24295499589916</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.08836208218175</v>
+        <v>12.75774475573595</v>
       </c>
       <c r="L9">
-        <v>9.692451669269319</v>
+        <v>7.221989355071639</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.58039658848075</v>
+        <v>12.33112778010032</v>
       </c>
       <c r="O9">
-        <v>25.03433577628521</v>
+        <v>16.89798309849947</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.31240521158942</v>
+        <v>17.91832402238885</v>
       </c>
       <c r="C10">
-        <v>9.275932052549807</v>
+        <v>6.970204623891349</v>
       </c>
       <c r="D10">
-        <v>5.937551829611305</v>
+        <v>5.501551395055608</v>
       </c>
       <c r="E10">
-        <v>12.17655675785786</v>
+        <v>8.757975455146939</v>
       </c>
       <c r="F10">
-        <v>28.04327429014531</v>
+        <v>22.01953614262824</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.39439118618921</v>
+        <v>13.80488560549035</v>
       </c>
       <c r="L10">
-        <v>9.732158788330493</v>
+        <v>7.590860365066915</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.48392081074432</v>
+        <v>11.97803559621248</v>
       </c>
       <c r="O10">
-        <v>24.96570272352362</v>
+        <v>17.14347582193786</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.50706629594722</v>
+        <v>18.56618460267615</v>
       </c>
       <c r="C11">
-        <v>9.277221694384387</v>
+        <v>6.979125582761673</v>
       </c>
       <c r="D11">
-        <v>5.969456681710195</v>
+        <v>5.592317430724867</v>
       </c>
       <c r="E11">
-        <v>12.17972496434753</v>
+        <v>8.886961408352882</v>
       </c>
       <c r="F11">
-        <v>28.05798632658014</v>
+        <v>22.38617061178206</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.53218297331897</v>
+        <v>14.25757380149379</v>
       </c>
       <c r="L11">
-        <v>9.751876467942697</v>
+        <v>7.757159133604391</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.44182059080072</v>
+        <v>11.81953399479199</v>
       </c>
       <c r="O11">
-        <v>24.93972091132089</v>
+        <v>17.27133094779343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.58044749519691</v>
+        <v>18.80646181207229</v>
       </c>
       <c r="C12">
-        <v>9.277750173795177</v>
+        <v>6.982612574652734</v>
       </c>
       <c r="D12">
-        <v>5.981426595320507</v>
+        <v>5.626258955511928</v>
       </c>
       <c r="E12">
-        <v>12.18125636423936</v>
+        <v>8.936283640957676</v>
       </c>
       <c r="F12">
-        <v>28.06456257728833</v>
+        <v>22.5268766156582</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.58410726971051</v>
+        <v>14.42561276325675</v>
       </c>
       <c r="L12">
-        <v>9.759576965336951</v>
+        <v>7.819871487930015</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.42613397200689</v>
+        <v>11.75978733597454</v>
       </c>
       <c r="O12">
-        <v>24.93063685954002</v>
+        <v>17.3221521211098</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.56465946377114</v>
+        <v>18.75493759268685</v>
       </c>
       <c r="C13">
-        <v>9.27763457868064</v>
+        <v>6.981856724311196</v>
       </c>
       <c r="D13">
-        <v>5.978853686726811</v>
+        <v>5.618968386041852</v>
       </c>
       <c r="E13">
-        <v>12.18091182146943</v>
+        <v>8.925640322008155</v>
       </c>
       <c r="F13">
-        <v>28.06310161969428</v>
+        <v>22.49649072566321</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.57293652942041</v>
+        <v>14.38957273213846</v>
       </c>
       <c r="L13">
-        <v>9.757908193489921</v>
+        <v>7.806377539495022</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.42950100671261</v>
+        <v>11.77264314998139</v>
       </c>
       <c r="O13">
-        <v>24.93255968993847</v>
+        <v>17.31109869467041</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.51311048532632</v>
+        <v>18.58605328163317</v>
       </c>
       <c r="C14">
-        <v>9.277264371058703</v>
+        <v>6.979410270029578</v>
       </c>
       <c r="D14">
-        <v>5.970443713684607</v>
+        <v>5.595118516536127</v>
       </c>
       <c r="E14">
-        <v>12.17984431449438</v>
+        <v>8.891009729944757</v>
       </c>
       <c r="F14">
-        <v>28.05850723542898</v>
+        <v>22.39770940485279</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.5364601934563</v>
+        <v>14.27146616907251</v>
       </c>
       <c r="L14">
-        <v>9.752505330438266</v>
+        <v>7.762323992251726</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.44052492281626</v>
+        <v>11.81461328306228</v>
       </c>
       <c r="O14">
-        <v>24.93895842936876</v>
+        <v>17.27546339763759</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.48148980993376</v>
+        <v>18.48195046620285</v>
       </c>
       <c r="C15">
-        <v>9.277042820474753</v>
+        <v>6.977925962700401</v>
       </c>
       <c r="D15">
-        <v>5.965277703421769</v>
+        <v>5.580453386582499</v>
       </c>
       <c r="E15">
-        <v>12.17923358705984</v>
+        <v>8.869859059305785</v>
       </c>
       <c r="F15">
-        <v>28.05582383192406</v>
+        <v>22.33744493495019</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.51408280609755</v>
+        <v>14.19868239738958</v>
       </c>
       <c r="L15">
-        <v>9.749226247384305</v>
+        <v>7.735304646156122</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.44731067087346</v>
+        <v>11.84035600170262</v>
       </c>
       <c r="O15">
-        <v>24.94297615874865</v>
+        <v>17.25395123674128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.29964098801476</v>
+        <v>17.87527432018113</v>
       </c>
       <c r="C16">
-        <v>9.275853408628288</v>
+        <v>6.969636764360524</v>
       </c>
       <c r="D16">
-        <v>5.935451325052694</v>
+        <v>5.495560343322161</v>
       </c>
       <c r="E16">
-        <v>12.17639619508255</v>
+        <v>8.749614091964061</v>
       </c>
       <c r="F16">
-        <v>28.04245366503954</v>
+        <v>21.99584013828147</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.38535322340602</v>
+        <v>13.77482667155247</v>
       </c>
       <c r="L16">
-        <v>9.730903143688197</v>
+        <v>7.579958096646311</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.48670802053652</v>
+        <v>11.98843416709122</v>
       </c>
       <c r="O16">
-        <v>24.96750624263552</v>
+        <v>17.13545258381743</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.18756701828559</v>
+        <v>17.49403222860323</v>
       </c>
       <c r="C17">
-        <v>9.275195653114238</v>
+        <v>6.964743851458071</v>
       </c>
       <c r="D17">
-        <v>5.916958526178137</v>
+        <v>5.442732739289609</v>
       </c>
       <c r="E17">
-        <v>12.17524773255671</v>
+        <v>8.676724379930958</v>
       </c>
       <c r="F17">
-        <v>28.03604534447157</v>
+        <v>21.78966197335003</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.30598119744867</v>
+        <v>13.50875584614378</v>
       </c>
       <c r="L17">
-        <v>9.720083487309337</v>
+        <v>7.484238943695037</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.51133390676475</v>
+        <v>12.07979754650898</v>
       </c>
       <c r="O17">
-        <v>24.98389761409528</v>
+        <v>17.06695880590652</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.12293922564206</v>
+        <v>17.27140098404228</v>
       </c>
       <c r="C18">
-        <v>9.274843891465274</v>
+        <v>6.961999776207493</v>
       </c>
       <c r="D18">
-        <v>5.906251337122556</v>
+        <v>5.412077914832914</v>
       </c>
       <c r="E18">
-        <v>12.17480519617138</v>
+        <v>8.635130046627975</v>
       </c>
       <c r="F18">
-        <v>28.03301962783156</v>
+        <v>21.67233474946659</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.26019746299532</v>
+        <v>13.35349034788751</v>
       </c>
       <c r="L18">
-        <v>9.714016319126012</v>
+        <v>7.429044708793238</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52566634377319</v>
+        <v>12.13254900410714</v>
       </c>
       <c r="O18">
-        <v>24.99381862299775</v>
+        <v>17.02908146077695</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.10103117293323</v>
+        <v>17.1954445591789</v>
       </c>
       <c r="C19">
-        <v>9.274729365844275</v>
+        <v>6.961082695310308</v>
       </c>
       <c r="D19">
-        <v>5.902614047137591</v>
+        <v>5.401652902912164</v>
       </c>
       <c r="E19">
-        <v>12.17469284349917</v>
+        <v>8.621104321946643</v>
       </c>
       <c r="F19">
-        <v>28.03210863862299</v>
+        <v>21.63282795599134</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.24467493114993</v>
+        <v>13.30053689020454</v>
       </c>
       <c r="L19">
-        <v>9.711988996210035</v>
+        <v>7.410334481394422</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.53054799826023</v>
+        <v>12.1504452798297</v>
       </c>
       <c r="O19">
-        <v>24.99726235991065</v>
+        <v>17.01651516895966</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.19951518514556</v>
+        <v>17.53496247488671</v>
       </c>
       <c r="C20">
-        <v>9.275262926296604</v>
+        <v>6.965257435253244</v>
       </c>
       <c r="D20">
-        <v>5.918934451063003</v>
+        <v>5.448384371994194</v>
       </c>
       <c r="E20">
-        <v>12.17534743186174</v>
+        <v>8.684449646440841</v>
       </c>
       <c r="F20">
-        <v>28.03665921461712</v>
+        <v>21.81147986475062</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.31444441711304</v>
+        <v>13.53731007636153</v>
       </c>
       <c r="L20">
-        <v>9.721219140453602</v>
+        <v>7.494443156674194</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.50869503137081</v>
+        <v>12.07005110401978</v>
       </c>
       <c r="O20">
-        <v>24.98210167835214</v>
+        <v>17.07409234609801</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.52826126427368</v>
+        <v>18.63579535921568</v>
       </c>
       <c r="C21">
-        <v>9.277372024533225</v>
+        <v>6.980125887450457</v>
       </c>
       <c r="D21">
-        <v>5.972916987781954</v>
+        <v>5.602135580629531</v>
       </c>
       <c r="E21">
-        <v>12.18014887703736</v>
+        <v>8.901168784728572</v>
       </c>
       <c r="F21">
-        <v>28.05982946780627</v>
+        <v>22.42667354324418</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.54718146924045</v>
+        <v>14.30624860406832</v>
       </c>
       <c r="L21">
-        <v>9.754085969945086</v>
+        <v>7.775271010500749</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.43727999773177</v>
+        <v>11.80227844269727</v>
       </c>
       <c r="O21">
-        <v>24.9370584734762</v>
+        <v>17.28586446675444</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.74114515872961</v>
+        <v>19.32582692553209</v>
       </c>
       <c r="C22">
-        <v>9.278984095371429</v>
+        <v>6.990478343652222</v>
       </c>
       <c r="D22">
-        <v>6.007544665485994</v>
+        <v>5.70011055914624</v>
       </c>
       <c r="E22">
-        <v>12.18521937814674</v>
+        <v>9.045583558085422</v>
       </c>
       <c r="F22">
-        <v>28.08082912571273</v>
+        <v>22.83961254947347</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.69778399166001</v>
+        <v>14.78908070668448</v>
       </c>
       <c r="L22">
-        <v>9.776927255287397</v>
+        <v>7.957268189672198</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.39209673296483</v>
+        <v>11.62885765523742</v>
       </c>
       <c r="O22">
-        <v>24.91201950397996</v>
+        <v>17.43832262594603</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.62772852228639</v>
+        <v>18.9602161737895</v>
       </c>
       <c r="C23">
-        <v>9.278102463288661</v>
+        <v>6.984894418401795</v>
       </c>
       <c r="D23">
-        <v>5.989124130665966</v>
+        <v>5.648054048602885</v>
       </c>
       <c r="E23">
-        <v>12.18233681204727</v>
+        <v>8.968260211270053</v>
       </c>
       <c r="F23">
-        <v>28.06908658935566</v>
+        <v>22.61824089726664</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.6175581123449</v>
+        <v>14.53318050619581</v>
       </c>
       <c r="L23">
-        <v>9.764613331122526</v>
+        <v>7.860287117055019</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.41607588376593</v>
+        <v>11.72128127922083</v>
       </c>
       <c r="O23">
-        <v>24.92498037905641</v>
+        <v>17.35564215099238</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.19411402060211</v>
+        <v>17.51646866131455</v>
       </c>
       <c r="C24">
-        <v>9.27523242985718</v>
+        <v>6.965025029437657</v>
       </c>
       <c r="D24">
-        <v>5.91804137010477</v>
+        <v>5.445830150741013</v>
       </c>
       <c r="E24">
-        <v>12.17530167951209</v>
+        <v>8.680956083139437</v>
       </c>
       <c r="F24">
-        <v>28.03637963247343</v>
+        <v>21.80161223142135</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.31061866418095</v>
+        <v>13.52440786744762</v>
       </c>
       <c r="L24">
-        <v>9.720705234173591</v>
+        <v>7.489830339355525</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.50988752269398</v>
+        <v>12.07445676619795</v>
       </c>
       <c r="O24">
-        <v>24.98291207164164</v>
+        <v>17.07086260442661</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72037684053851</v>
+        <v>15.83081467111623</v>
       </c>
       <c r="C25">
-        <v>9.273153803777568</v>
+        <v>6.946271943820123</v>
       </c>
       <c r="D25">
-        <v>5.838681877528209</v>
+        <v>5.217465275533093</v>
       </c>
       <c r="E25">
-        <v>12.17605202975851</v>
+        <v>8.383765568288982</v>
       </c>
       <c r="F25">
-        <v>28.02634389303911</v>
+        <v>20.9691644384305</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.974746828252266</v>
+        <v>12.35105621646108</v>
       </c>
       <c r="L25">
-        <v>9.679321820675799</v>
+        <v>7.085152636315541</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.61751725049802</v>
+        <v>12.46323305406472</v>
       </c>
       <c r="O25">
-        <v>25.06424696071539</v>
+        <v>16.82137296237495</v>
       </c>
     </row>
   </sheetData>
